--- a/TestDATA/SeleniumTestDATA.xlsx
+++ b/TestDATA/SeleniumTestDATA.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
     <sheet name="SignupDATA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t xml:space="preserve">Email </t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -95,12 +92,15 @@
   </si>
   <si>
     <t>sol8</t>
+  </si>
+  <si>
+    <t>Register Email add.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,9 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -429,42 +427,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -476,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -488,57 +486,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/TestDATA/SeleniumTestDATA.xlsx
+++ b/TestDATA/SeleniumTestDATA.xlsx
@@ -101,10 +101,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,16 +135,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,7 +428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -434,7 +447,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -466,6 +479,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
